--- a/ptrack/plots/yubo.256.xlsx
+++ b/ptrack/plots/yubo.256.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="6015" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44000" windowHeight="31560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result_8.csv" sheetId="1" r:id="rId1"/>
     <sheet name="#proc-wise" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,19 +33,19 @@
     <t>:</t>
   </si>
   <si>
-    <t>#feature</t>
+    <t>T_merge(decentralized)</t>
   </si>
   <si>
-    <t>Textract</t>
+    <t>T_merage(centralized)</t>
   </si>
   <si>
-    <t>Tcreate</t>
+    <t>T_create</t>
   </si>
   <si>
-    <t>Tmerge(decentralized)</t>
+    <t># feature</t>
   </si>
   <si>
-    <t>Tmerage(centralized)</t>
+    <t>Time for Feature Extraction</t>
   </si>
 </sst>
 </file>
@@ -107,8 +108,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,7 +207,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -242,6 +247,8 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -281,6 +288,8 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -323,7 +332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Textract</c:v>
+                  <c:v>Time for Feature Extraction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -336,28 +345,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,25 +381,25 @@
                   <c:v>1.23325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65624800000000005</c:v>
+                  <c:v>0.656248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30026799999999998</c:v>
+                  <c:v>0.300268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16090299999999999</c:v>
+                  <c:v>0.160903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7943700000000005E-2</c:v>
+                  <c:v>0.0779437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5286100000000001E-2</c:v>
+                  <c:v>0.0352861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.16896E-2</c:v>
+                  <c:v>0.0216896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.64207E-2</c:v>
+                  <c:v>0.0164207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,7 +414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tcreate</c:v>
+                  <c:v>T_create</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -418,28 +427,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,28 +460,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3513800000000001E-2</c:v>
+                  <c:v>0.0235138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.39431E-2</c:v>
+                  <c:v>0.0139431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8723000000000005E-3</c:v>
+                  <c:v>0.0078723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4511500000000001E-3</c:v>
+                  <c:v>0.00345115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9540400000000002E-3</c:v>
+                  <c:v>0.00195404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.23824E-3</c:v>
+                  <c:v>0.00123824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.10502E-3</c:v>
+                  <c:v>0.00110502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0396300000000005E-4</c:v>
+                  <c:v>0.000703963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,7 +496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerge(decentralized)</c:v>
+                  <c:v>T_merge(decentralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -500,28 +509,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,28 +542,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.0646299999999997E-3</c:v>
+                  <c:v>0.00606463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4236400000000004E-3</c:v>
+                  <c:v>0.00642364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1545999999999996E-3</c:v>
+                  <c:v>0.0041546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3203899999999999E-3</c:v>
+                  <c:v>0.00232039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1619600000000001E-3</c:v>
+                  <c:v>0.00216196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5647999999999999E-3</c:v>
+                  <c:v>0.0025648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0666699999999997E-3</c:v>
+                  <c:v>0.00406667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2789999999999999E-3</c:v>
+                  <c:v>0.007279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -570,11 +579,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="92808704"/>
-        <c:axId val="92810240"/>
+        <c:axId val="-2121728648"/>
+        <c:axId val="-2057055608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92808704"/>
+        <c:axId val="-2121728648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92810240"/>
+        <c:crossAx val="-2057055608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -621,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92810240"/>
+        <c:axId val="-2057055608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92808704"/>
+        <c:crossAx val="-2121728648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -715,7 +724,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -755,8 +764,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33509651137357799"/>
-          <c:y val="0"/>
+          <c:x val="0.335096511373578"/>
+          <c:y val="0.0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -777,7 +786,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Textract</c:v>
+                  <c:v>Time for Feature Extraction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -790,28 +799,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,25 +835,25 @@
                   <c:v>1.23325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65624800000000005</c:v>
+                  <c:v>0.656248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30026799999999998</c:v>
+                  <c:v>0.300268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16090299999999999</c:v>
+                  <c:v>0.160903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7943700000000005E-2</c:v>
+                  <c:v>0.0779437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5286100000000001E-2</c:v>
+                  <c:v>0.0352861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.16896E-2</c:v>
+                  <c:v>0.0216896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.64207E-2</c:v>
+                  <c:v>0.0164207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +868,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tcreate</c:v>
+                  <c:v>T_create</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,28 +881,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,28 +914,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3513800000000001E-2</c:v>
+                  <c:v>0.0235138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.39431E-2</c:v>
+                  <c:v>0.0139431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8723000000000005E-3</c:v>
+                  <c:v>0.0078723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4511500000000001E-3</c:v>
+                  <c:v>0.00345115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9540400000000002E-3</c:v>
+                  <c:v>0.00195404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.23824E-3</c:v>
+                  <c:v>0.00123824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.10502E-3</c:v>
+                  <c:v>0.00110502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0396300000000005E-4</c:v>
+                  <c:v>0.000703963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerge(decentralized)</c:v>
+                  <c:v>T_merge(decentralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -954,28 +963,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,28 +996,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.0646299999999997E-3</c:v>
+                  <c:v>0.00606463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4236400000000004E-3</c:v>
+                  <c:v>0.00642364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1545999999999996E-3</c:v>
+                  <c:v>0.0041546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3203899999999999E-3</c:v>
+                  <c:v>0.00232039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1619600000000001E-3</c:v>
+                  <c:v>0.00216196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5647999999999999E-3</c:v>
+                  <c:v>0.0025648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0666699999999997E-3</c:v>
+                  <c:v>0.00406667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2789999999999999E-3</c:v>
+                  <c:v>0.007279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +1033,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="97041024"/>
-        <c:axId val="97042816"/>
+        <c:axId val="-2056585832"/>
+        <c:axId val="-2056582824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97041024"/>
+        <c:axId val="-2056585832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97042816"/>
+        <c:crossAx val="-2056582824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1056,9 +1065,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97042816"/>
+        <c:axId val="-2056582824"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1095,7 +1104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97041024"/>
+        <c:crossAx val="-2056585832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,7 +1141,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1178,8 +1187,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11945108134134599"/>
-          <c:y val="0"/>
+          <c:x val="0.119451081341346"/>
+          <c:y val="0.0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1191,10 +1200,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16143450590394701"/>
-          <c:y val="0.13917160411739299"/>
-          <c:w val="0.81610005732700497"/>
-          <c:h val="0.66552996624562999"/>
+          <c:x val="0.161434505903947"/>
+          <c:y val="0.139171604117393"/>
+          <c:w val="0.816100057327005"/>
+          <c:h val="0.66552996624563"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1210,7 +1219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerge(decentralized)</c:v>
+                  <c:v>T_merge(decentralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1237,31 +1246,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,31 +1282,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.7186399999999993E-2</c:v>
+                  <c:v>0.0671864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.81555E-2</c:v>
+                  <c:v>0.0281555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3599699999999999E-2</c:v>
+                  <c:v>0.0135997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02427E-2</c:v>
+                  <c:v>0.0102427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0646299999999997E-3</c:v>
+                  <c:v>0.00606463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4236400000000004E-3</c:v>
+                  <c:v>0.00642364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1545999999999996E-3</c:v>
+                  <c:v>0.0041546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3203899999999999E-3</c:v>
+                  <c:v>0.00232039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1619600000000001E-3</c:v>
+                  <c:v>0.00216196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,7 +1321,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerage(centralized)</c:v>
+                  <c:v>T_merage(centralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1339,31 +1348,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,31 +1384,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.2254100000000002E-4</c:v>
+                  <c:v>0.000422541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4217200000000004E-4</c:v>
+                  <c:v>0.000742172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6002200000000001E-3</c:v>
+                  <c:v>0.00160022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8836500000000002E-3</c:v>
+                  <c:v>0.00288365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7966399999999996E-3</c:v>
+                  <c:v>0.00579664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0142399999999999E-2</c:v>
+                  <c:v>0.0101424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8582100000000001E-2</c:v>
+                  <c:v>0.0185821</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.79368E-2</c:v>
+                  <c:v>0.0379368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9369900000000002E-2</c:v>
+                  <c:v>0.0893699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,11 +1424,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="97145984"/>
-        <c:axId val="97147520"/>
+        <c:axId val="-2056535112"/>
+        <c:axId val="-2056532104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97145984"/>
+        <c:axId val="-2056535112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97147520"/>
+        <c:crossAx val="-2056532104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1447,9 +1456,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97147520"/>
+        <c:axId val="-2056532104"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1485,7 +1494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97145984"/>
+        <c:crossAx val="-2056535112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,10 +1510,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31691016016046702"/>
-          <c:y val="0.92573982787773501"/>
+          <c:x val="0.316910160160467"/>
+          <c:y val="0.925739827877735"/>
           <c:w val="0.373091985690156"/>
-          <c:h val="7.4260172122264906E-2"/>
+          <c:h val="0.0742601721222649"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1525,13 +1534,417 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.376354330708661"/>
+          <c:y val="0.00277777777777778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1146052055993"/>
+          <c:y val="0.090666447944007"/>
+          <c:w val="0.849283683289589"/>
+          <c:h val="0.760574584426947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_merge(decentralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="38100"/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0671864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0281555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0135997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0102427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00606463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00642364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0041546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00232039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00216196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_merage(centralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="38100"/>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.000422541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000742172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00160022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00288365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00579664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0101424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0185821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0379368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0893699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1821526008"/>
+        <c:axId val="1822395736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1821526008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1822395736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1822395736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.803494969378828"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1821526008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.172949256342957"/>
+          <c:y val="0.166666666666667"/>
+          <c:w val="0.498372265966754"/>
+          <c:h val="0.14627646544182"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -1561,6 +1974,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1582,223 +1996,223 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,8 +2229,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97305728"/>
-        <c:axId val="97307264"/>
+        <c:axId val="-2056485432"/>
+        <c:axId val="-2056482456"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1834,46 +2248,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>0.31229489999999999</c:v>
+                  <c:v>0.3122949</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33437422999999999</c:v>
+                  <c:v>0.33437423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32830415000000002</c:v>
+                  <c:v>0.32830415</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.48963308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37445363999999998</c:v>
+                  <c:v>0.37445364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25794022999999999</c:v>
+                  <c:v>0.25794023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27866397000000004</c:v>
+                  <c:v>0.27866397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32177329999999998</c:v>
+                  <c:v>0.3217733</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.42920406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37322507000000005</c:v>
+                  <c:v>0.37322507</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.42522504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41223398999999999</c:v>
+                  <c:v>0.41223399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39736215000000003</c:v>
+                  <c:v>0.39736215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35633098000000002</c:v>
+                  <c:v>0.35633098</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.32752471</c:v>
@@ -1882,115 +2296,115 @@
                   <c:v>0.3787141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31095458000000004</c:v>
+                  <c:v>0.31095458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35193445000000007</c:v>
+                  <c:v>0.35193445</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.42619719</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6728507600000001</c:v>
+                  <c:v>0.67285076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42896474000000001</c:v>
+                  <c:v>0.42896474</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.44871100000000003</c:v>
+                  <c:v>0.448711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30551544999999997</c:v>
+                  <c:v>0.30551545</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.33182593999999999</c:v>
+                  <c:v>0.33182594</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.36102029000000002</c:v>
+                  <c:v>0.36102029</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28745268000000002</c:v>
+                  <c:v>0.28745268</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55741896999999996</c:v>
+                  <c:v>0.55741897</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.48416787</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35187870999999998</c:v>
+                  <c:v>0.35187871</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44936497000000003</c:v>
+                  <c:v>0.44936497</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.34523239999999994</c:v>
+                  <c:v>0.3452324</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.5053841</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.44128375999999997</c:v>
+                  <c:v>0.44128376</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.53906767</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.77851781999999992</c:v>
+                  <c:v>0.77851782</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.73792055000000001</c:v>
+                  <c:v>0.73792055</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.82336475000000009</c:v>
+                  <c:v>0.82336475</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.81982279999999996</c:v>
+                  <c:v>0.8198228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.73302588999999996</c:v>
+                  <c:v>0.73302589</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.83082818000000003</c:v>
+                  <c:v>0.83082818</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.72006479000000001</c:v>
+                  <c:v>0.72006479</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.86960170000000003</c:v>
+                  <c:v>0.8696017</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.82726184999999997</c:v>
+                  <c:v>0.82726185</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.0307388</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0927381599999999</c:v>
+                  <c:v>1.09273816</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0826808799999998</c:v>
+                  <c:v>1.08268088</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1958203000000001</c:v>
+                  <c:v>1.1958203</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.15895836</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0795944599999998</c:v>
+                  <c:v>1.07959446</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1710291199999998</c:v>
+                  <c:v>1.17102912</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3391276599999999</c:v>
+                  <c:v>1.33912766</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.4664341400000001</c:v>
+                  <c:v>1.46643414</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.4130389799999998</c:v>
+                  <c:v>1.41303898</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1.28291742</c:v>
@@ -2002,7 +2416,7 @@
                   <c:v>1.3228834</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7754407700000001</c:v>
+                  <c:v>1.77544077</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1.86574577</c:v>
@@ -2011,46 +2425,46 @@
                   <c:v>2.15248705</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5261631899999999</c:v>
+                  <c:v>1.52616319</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1.60311235</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3638273899999998</c:v>
+                  <c:v>1.36382739</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.57742556</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0525802999999998</c:v>
+                  <c:v>2.0525803</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3320296099999998</c:v>
+                  <c:v>1.33202961</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3252028200000001</c:v>
+                  <c:v>1.32520282</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4929605499999998</c:v>
+                  <c:v>1.49296055</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.4958533399999998</c:v>
+                  <c:v>1.49585334</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5140095600000001</c:v>
+                  <c:v>1.51400956</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1.52937587</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.4099540899999998</c:v>
+                  <c:v>1.40995409</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4613881200000001</c:v>
+                  <c:v>1.46138812</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8119011899999999</c:v>
+                  <c:v>1.81190119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97310592"/>
-        <c:axId val="97309056"/>
+        <c:axId val="-2056475848"/>
+        <c:axId val="-2056479144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97305728"/>
+        <c:axId val="-2056485432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2495,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97307264"/>
+        <c:crossAx val="-2056482456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97307264"/>
+        <c:axId val="-2056482456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,12 +2519,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97305728"/>
+        <c:crossAx val="-2056485432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97309056"/>
+        <c:axId val="-2056479144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,12 +2534,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97310592"/>
+        <c:crossAx val="-2056475848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97310592"/>
+        <c:axId val="-2056475848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97309056"/>
+        <c:crossAx val="-2056479144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2144,6 +2558,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2162,7 +2577,1057 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11483896544182"/>
+          <c:y val="0.067368082895888"/>
+          <c:w val="0.875956911636045"/>
+          <c:h val="0.750108267716535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time for Feature Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$15:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$C$15:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.3625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.656248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.300268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.160903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0779437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0352861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0216896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0164207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2021532440"/>
+        <c:axId val="-2021095560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2021532440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processor Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2021095560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2021095560"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="0.01"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2021532440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11775166776028"/>
+          <c:y val="0.0645240048118985"/>
+          <c:w val="0.874212871828521"/>
+          <c:h val="0.748447205818023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time for Feature Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$15:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$C$15:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.3625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.656248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.300268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.160903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0779437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0352861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0216896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0164207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2092034536"/>
+        <c:axId val="-2092489896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092034536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processor Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.386689632545932"/>
+              <c:y val="0.920486111111111"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092489896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2092489896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092034536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11775166776028"/>
+          <c:y val="0.0645240048118985"/>
+          <c:w val="0.874212871828521"/>
+          <c:h val="0.748447205818023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time for Feature Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$15:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$C$15:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.3625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.656248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.300268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.160903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0779437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0352861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0216896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0164207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2101030104"/>
+        <c:axId val="2061553192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2101030104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processor Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.386689632545932"/>
+              <c:y val="0.920486111111111"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2061553192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2061553192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101030104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.297550853018373"/>
+          <c:y val="0.1"/>
+          <c:w val="0.407676071741032"/>
+          <c:h val="0.0893495188101487"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11483896544182"/>
+          <c:y val="0.067368082895888"/>
+          <c:w val="0.875956911636045"/>
+          <c:h val="0.750108267716535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time for Feature Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$15:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$C$15:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.3625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.656248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.300268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.160903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0779437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0352861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0216896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0164207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="2117454728"/>
+        <c:axId val="-2116471544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2117454728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processor Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="-2116471544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2116471544"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="0.01"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2117454728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2190,10 +3655,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12810115923009624"/>
-          <c:y val="0.13917160411739299"/>
-          <c:w val="0.84943339895013126"/>
-          <c:h val="0.66552996624562999"/>
+          <c:x val="0.159624799650399"/>
+          <c:y val="0.139171604117393"/>
+          <c:w val="0.817909706401217"/>
+          <c:h val="0.71761332567804"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2209,15 +3674,25 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerge(decentralized)</c:v>
+                  <c:v>T_merge(decentralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:srgbClr val="9BBB59">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="9BBB59">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2236,31 +3711,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,31 +3747,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.7186399999999993E-2</c:v>
+                  <c:v>0.0671864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.81555E-2</c:v>
+                  <c:v>0.0281555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3599699999999999E-2</c:v>
+                  <c:v>0.0135997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02427E-2</c:v>
+                  <c:v>0.0102427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0646299999999997E-3</c:v>
+                  <c:v>0.00606463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4236400000000004E-3</c:v>
+                  <c:v>0.00642364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1545999999999996E-3</c:v>
+                  <c:v>0.0041546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3203899999999999E-3</c:v>
+                  <c:v>0.00232039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1619600000000001E-3</c:v>
+                  <c:v>0.00216196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2311,15 +3786,25 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerage(centralized)</c:v>
+                  <c:v>T_merage(centralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:pattFill prst="ltVert">
+              <a:fgClr>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent6">
@@ -2338,31 +3823,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,31 +3859,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.2254100000000002E-4</c:v>
+                  <c:v>0.000422541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4217200000000004E-4</c:v>
+                  <c:v>0.000742172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6002200000000001E-3</c:v>
+                  <c:v>0.00160022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8836500000000002E-3</c:v>
+                  <c:v>0.00288365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7966399999999996E-3</c:v>
+                  <c:v>0.00579664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0142399999999999E-2</c:v>
+                  <c:v>0.0101424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8582100000000001E-2</c:v>
+                  <c:v>0.0185821</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.79368E-2</c:v>
+                  <c:v>0.0379368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9369900000000002E-2</c:v>
+                  <c:v>0.0893699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,11 +3899,640 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="92856704"/>
-        <c:axId val="92858240"/>
+        <c:axId val="-2057010264"/>
+        <c:axId val="-2096037848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92856704"/>
+        <c:axId val="-2057010264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
+                  <a:t>Processor Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2096037848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2096037848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="65000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
+                  <a:t>Time (second)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057010264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" strike="noStrike" normalizeH="0" baseline="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="3175">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2076862776"/>
+        <c:axId val="2076865784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2076862776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2076865784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2076865784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2076862776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13402436023622"/>
+          <c:y val="0.136111111111111"/>
+          <c:w val="0.843406195319335"/>
+          <c:h val="0.654447998687664"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time for Feature Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$19:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$C$19:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.23325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.656248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.300268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.160903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0779437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0352861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0216896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0164207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_create</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$19:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$D$19:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0235138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0139431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0078723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00345115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00195404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00123824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00110502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000703963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#proc-wise'!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T_merge(decentralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F79646"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'#proc-wise'!$B$19:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#proc-wise'!$E$19:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.00579664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0101424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0185821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0379368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0893699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.554983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2121798152"/>
+        <c:axId val="-2121786840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2121798152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,636 +4571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92858240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92858240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="65000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Time (second)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92856704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="1"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln w="3175">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'#proc-wise'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#proc-wise'!$G$2:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="96614272"/>
-        <c:axId val="96615808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="96614272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96615808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96615808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96614272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="134"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="34"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13402436023622"/>
-          <c:y val="0.13611111111111099"/>
-          <c:w val="0.84340619531933503"/>
-          <c:h val="0.65444799868766401"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#proc-wise'!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Textract</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'#proc-wise'!$B$19:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#proc-wise'!$C$19:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.23325</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65624800000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30026799999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16090299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.7943700000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5286100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.16896E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.64207E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#proc-wise'!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tcreate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'#proc-wise'!$B$19:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#proc-wise'!$D$19:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.3513800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.39431E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8723000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4511500000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9540400000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.23824E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.10502E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0396300000000005E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#proc-wise'!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tmerge(decentralized)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="F79646"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F79646">
-                  <a:lumMod val="75000"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'#proc-wise'!$B$19:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#proc-wise'!$E$19:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5.7966399999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0142399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8582100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.79368E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9369900000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25780999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.554983</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.06738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="96731520"/>
-        <c:axId val="96733056"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="96731520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Processor Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96733056"/>
+        <c:crossAx val="-2121786840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,7 +4579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96733056"/>
+        <c:axId val="-2121786840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,7 +4636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96731520"/>
+        <c:crossAx val="-2121798152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3188,7 +4673,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3225,7 +4710,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Textract</c:v>
+                  <c:v>Time for Feature Extraction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3238,40 +4723,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,13 +4768,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20.362500000000001</c:v>
+                  <c:v>20.3625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2842000000000002</c:v>
+                  <c:v>7.2842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9417999999999997</c:v>
+                  <c:v>5.9418</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.69679</c:v>
@@ -3298,25 +4783,25 @@
                   <c:v>1.23325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65624800000000005</c:v>
+                  <c:v>0.656248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30026799999999998</c:v>
+                  <c:v>0.300268</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16090299999999999</c:v>
+                  <c:v>0.160903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7943700000000005E-2</c:v>
+                  <c:v>0.0779437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5286100000000001E-2</c:v>
+                  <c:v>0.0352861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.16896E-2</c:v>
+                  <c:v>0.0216896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.64207E-2</c:v>
+                  <c:v>0.0164207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,11 +4817,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="96772480"/>
-        <c:axId val="96774016"/>
+        <c:axId val="-2056811880"/>
+        <c:axId val="-2056806360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96772480"/>
+        <c:axId val="-2056811880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +4860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96774016"/>
+        <c:crossAx val="-2056806360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3383,7 +4868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96774016"/>
+        <c:axId val="-2056806360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +4925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96772480"/>
+        <c:crossAx val="-2056811880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3477,7 +4962,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3505,10 +4990,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12786253280839896"/>
-          <c:y val="0.15417366579177602"/>
-          <c:w val="0.85685968941382318"/>
-          <c:h val="0.55219160104986875"/>
+          <c:x val="0.127862532808399"/>
+          <c:y val="0.154173665791776"/>
+          <c:w val="0.856859689413823"/>
+          <c:h val="0.552191601049869"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3524,7 +5009,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Textract</c:v>
+                  <c:v>Time for Feature Extraction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3537,40 +5022,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3582,13 +5067,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20.362500000000001</c:v>
+                  <c:v>20.3625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2842000000000002</c:v>
+                  <c:v>7.2842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9417999999999997</c:v>
+                  <c:v>5.9418</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.69679</c:v>
@@ -3597,25 +5082,25 @@
                   <c:v>1.23325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65624800000000005</c:v>
+                  <c:v>0.656248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30026799999999998</c:v>
+                  <c:v>0.300268</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16090299999999999</c:v>
+                  <c:v>0.160903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7943700000000005E-2</c:v>
+                  <c:v>0.0779437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5286100000000001E-2</c:v>
+                  <c:v>0.0352861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.16896E-2</c:v>
+                  <c:v>0.0216896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.64207E-2</c:v>
+                  <c:v>0.0164207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3631,11 +5116,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="96790016"/>
-        <c:axId val="96791552"/>
+        <c:axId val="-2056768008"/>
+        <c:axId val="-2056762488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96790016"/>
+        <c:axId val="-2056768008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,7 +5159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96791552"/>
+        <c:crossAx val="-2056762488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3683,12 +5168,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96791552"/>
+        <c:axId val="-2056762488"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="1.0000000000000002E-2"/>
+          <c:max val="100.0"/>
+          <c:min val="0.01"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3743,7 +5228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96790016"/>
+        <c:crossAx val="-2056768008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3780,7 +5265,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3816,7 +5301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tcreate</c:v>
+                  <c:v>T_create</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3829,40 +5314,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,40 +5359,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.2226699999999995E-2</c:v>
+                  <c:v>0.0922267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6196500000000003E-2</c:v>
+                  <c:v>0.0561965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0396900000000001E-2</c:v>
+                  <c:v>0.0503969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2198900000000003E-2</c:v>
+                  <c:v>0.0321989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3513800000000001E-2</c:v>
+                  <c:v>0.0235138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.39431E-2</c:v>
+                  <c:v>0.0139431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8723000000000005E-3</c:v>
+                  <c:v>0.0078723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4511500000000001E-3</c:v>
+                  <c:v>0.00345115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9540400000000002E-3</c:v>
+                  <c:v>0.00195404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.23824E-3</c:v>
+                  <c:v>0.00123824</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.10502E-3</c:v>
+                  <c:v>0.00110502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0396300000000005E-4</c:v>
+                  <c:v>0.000703963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,8 +5408,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="96907264"/>
-        <c:axId val="96910336"/>
+        <c:axId val="-2056725880"/>
+        <c:axId val="-2056720344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3938,7 +5423,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#feature</c:v>
+                  <c:v># feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3991,40 +5476,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,40 +5521,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,11 +5571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96929280"/>
-        <c:axId val="96908416"/>
+        <c:axId val="-2056711464"/>
+        <c:axId val="-2056714504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96907264"/>
+        <c:axId val="-2056725880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,8 +5614,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96910336"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="-2056720344"/>
+        <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4138,7 +5623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96910336"/>
+        <c:axId val="-2056720344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,12 +5672,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96907264"/>
+        <c:crossAx val="-2056725880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96908416"/>
+        <c:axId val="-2056714504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,12 +5697,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96929280"/>
+        <c:crossAx val="-2056711464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96929280"/>
+        <c:axId val="-2056711464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +5712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="96908416"/>
+        <c:crossAx val="-2056714504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4264,7 +5749,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4301,7 +5786,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tcreate</c:v>
+                  <c:v>T_create</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4328,40 +5813,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,40 +5858,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.2226699999999995E-2</c:v>
+                  <c:v>0.0922267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6196500000000003E-2</c:v>
+                  <c:v>0.0561965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0396900000000001E-2</c:v>
+                  <c:v>0.0503969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2198900000000003E-2</c:v>
+                  <c:v>0.0321989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3513800000000001E-2</c:v>
+                  <c:v>0.0235138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.39431E-2</c:v>
+                  <c:v>0.0139431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8723000000000005E-3</c:v>
+                  <c:v>0.0078723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4511500000000001E-3</c:v>
+                  <c:v>0.00345115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9540400000000002E-3</c:v>
+                  <c:v>0.00195404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.23824E-3</c:v>
+                  <c:v>0.00123824</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.10502E-3</c:v>
+                  <c:v>0.00110502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0396300000000005E-4</c:v>
+                  <c:v>0.000703963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,11 +5907,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="96961664"/>
-        <c:axId val="96963200"/>
+        <c:axId val="-2056673928"/>
+        <c:axId val="-2056668344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96961664"/>
+        <c:axId val="-2056673928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,7 +5950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96963200"/>
+        <c:crossAx val="-2056668344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4474,11 +5959,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96963200"/>
+        <c:axId val="-2056668344"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:min val="1E-4"/>
+          <c:min val="0.0001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4533,7 +6018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96961664"/>
+        <c:crossAx val="-2056673928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4570,7 +6055,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4611,8 +6096,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31170138888888899"/>
-          <c:y val="0"/>
+          <c:x val="0.311701388888889"/>
+          <c:y val="0.0"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4625,9 +6110,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13402436023622"/>
-          <c:y val="0.13611111111111099"/>
-          <c:w val="0.84340619531933503"/>
-          <c:h val="0.65444799868766401"/>
+          <c:y val="0.136111111111111"/>
+          <c:w val="0.843406195319335"/>
+          <c:h val="0.654447998687664"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4643,7 +6128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Textract</c:v>
+                  <c:v>Time for Feature Extraction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4656,28 +6141,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,25 +6177,25 @@
                   <c:v>1.23325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65624800000000005</c:v>
+                  <c:v>0.656248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30026799999999998</c:v>
+                  <c:v>0.300268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16090299999999999</c:v>
+                  <c:v>0.160903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7943700000000005E-2</c:v>
+                  <c:v>0.0779437</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5286100000000001E-2</c:v>
+                  <c:v>0.0352861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.16896E-2</c:v>
+                  <c:v>0.0216896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.64207E-2</c:v>
+                  <c:v>0.0164207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4725,7 +6210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tcreate</c:v>
+                  <c:v>T_create</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4738,28 +6223,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4771,28 +6256,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3513800000000001E-2</c:v>
+                  <c:v>0.0235138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.39431E-2</c:v>
+                  <c:v>0.0139431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8723000000000005E-3</c:v>
+                  <c:v>0.0078723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4511500000000001E-3</c:v>
+                  <c:v>0.00345115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9540400000000002E-3</c:v>
+                  <c:v>0.00195404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.23824E-3</c:v>
+                  <c:v>0.00123824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.10502E-3</c:v>
+                  <c:v>0.00110502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0396300000000005E-4</c:v>
+                  <c:v>0.000703963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,7 +6292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tmerge(decentralized)</c:v>
+                  <c:v>T_merge(decentralized)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4832,28 +6317,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4096</c:v>
+                  <c:v>4096.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8192</c:v>
+                  <c:v>8192.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16384</c:v>
+                  <c:v>16384.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,22 +6350,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.7966399999999996E-3</c:v>
+                  <c:v>0.00579664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0142399999999999E-2</c:v>
+                  <c:v>0.0101424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8582100000000001E-2</c:v>
+                  <c:v>0.0185821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.79368E-2</c:v>
+                  <c:v>0.0379368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9369900000000002E-2</c:v>
+                  <c:v>0.0893699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25780999999999998</c:v>
+                  <c:v>0.25781</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.554983</c:v>
@@ -4902,11 +6387,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="96980352"/>
-        <c:axId val="97006720"/>
+        <c:axId val="-2056620552"/>
+        <c:axId val="-2056617544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96980352"/>
+        <c:axId val="-2056620552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4926,7 +6411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97006720"/>
+        <c:crossAx val="-2056617544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4934,9 +6419,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97006720"/>
+        <c:axId val="-2056617544"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4973,7 +6458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96980352"/>
+        <c:crossAx val="-2056620552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4990,10 +6475,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22307824803149601"/>
-          <c:y val="0.93547599518810198"/>
-          <c:w val="0.54689905949256301"/>
-          <c:h val="6.4524004811898503E-2"/>
+          <c:x val="0.223078248031496"/>
+          <c:y val="0.935475995188102"/>
+          <c:w val="0.546899059492563"/>
+          <c:h val="0.0645240048118985"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5019,7 +6504,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5060,20 +6545,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>469901</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>736601</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>393701</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5311,16 +6798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5343,16 +6830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>711201</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>778935</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5368,6 +6855,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>524934</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5403,6 +6922,139 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7670,82 +9322,359 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride8.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="100000"/>
+              <a:shade val="100000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:shade val="100000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI148"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="AL1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="AR81" sqref="AR81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.125" customWidth="1"/>
-    <col min="57" max="57" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="10.125" customWidth="1"/>
-    <col min="65" max="65" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.125" customWidth="1"/>
-    <col min="69" max="70" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.1640625" customWidth="1"/>
+    <col min="57" max="57" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="10.1640625" customWidth="1"/>
+    <col min="65" max="65" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.1640625" customWidth="1"/>
+    <col min="69" max="70" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87">
       <c r="A1">
         <v>8</v>
       </c>
@@ -7979,7 +9908,7 @@
         <v>0.554983</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87">
       <c r="I2">
         <v>16</v>
       </c>
@@ -8192,7 +10121,7 @@
         <v>0.55852900000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87">
       <c r="I3">
         <v>16</v>
       </c>
@@ -8405,7 +10334,7 @@
         <v>0.568909</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87">
       <c r="I4">
         <v>16</v>
       </c>
@@ -8618,7 +10547,7 @@
         <v>0.68447999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87">
       <c r="I5">
         <v>16</v>
       </c>
@@ -8831,7 +10760,7 @@
         <v>0.73708200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87">
       <c r="I6">
         <v>16</v>
       </c>
@@ -9044,7 +10973,7 @@
         <v>0.73704499999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87">
       <c r="I7">
         <v>16</v>
       </c>
@@ -9257,7 +11186,7 @@
         <v>0.72227200000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87">
       <c r="I8">
         <v>16</v>
       </c>
@@ -9470,7 +11399,7 @@
         <v>0.82065500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87">
       <c r="I9">
         <v>16</v>
       </c>
@@ -9683,7 +11612,7 @@
         <v>0.78119400000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87">
       <c r="I10">
         <v>16</v>
       </c>
@@ -9896,7 +11825,7 @@
         <v>0.78693500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87">
       <c r="I11">
         <v>16</v>
       </c>
@@ -10109,7 +12038,7 @@
         <v>0.75995599999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87">
       <c r="I12">
         <v>16</v>
       </c>
@@ -10322,7 +12251,7 @@
         <v>0.87654900000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87">
       <c r="I13">
         <v>16</v>
       </c>
@@ -10535,7 +12464,7 @@
         <v>0.85839299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87">
       <c r="I14">
         <v>16</v>
       </c>
@@ -10748,7 +12677,7 @@
         <v>0.82266499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87">
       <c r="I15">
         <v>16</v>
       </c>
@@ -10961,7 +12890,7 @@
         <v>0.81149300000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87">
       <c r="I16">
         <v>16</v>
       </c>
@@ -11174,7 +13103,7 @@
         <v>0.88753199999999999</v>
       </c>
     </row>
-    <row r="17" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:87">
       <c r="I17">
         <v>16</v>
       </c>
@@ -11387,7 +13316,7 @@
         <v>0.88986500000000002</v>
       </c>
     </row>
-    <row r="18" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:87">
       <c r="I18">
         <v>16</v>
       </c>
@@ -11600,7 +13529,7 @@
         <v>0.90400499999999995</v>
       </c>
     </row>
-    <row r="19" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:87">
       <c r="I19">
         <v>16</v>
       </c>
@@ -11813,7 +13742,7 @@
         <v>0.900057</v>
       </c>
     </row>
-    <row r="20" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:87">
       <c r="I20">
         <v>16</v>
       </c>
@@ -12026,7 +13955,7 @@
         <v>1.00241</v>
       </c>
     </row>
-    <row r="21" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:87">
       <c r="I21">
         <v>16</v>
       </c>
@@ -12239,7 +14168,7 @@
         <v>1.0464500000000001</v>
       </c>
     </row>
-    <row r="22" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:87">
       <c r="I22">
         <v>16</v>
       </c>
@@ -12452,7 +14381,7 @@
         <v>1.0959700000000001</v>
       </c>
     </row>
-    <row r="23" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:87">
       <c r="I23">
         <v>16</v>
       </c>
@@ -12665,7 +14594,7 @@
         <v>1.0516300000000001</v>
       </c>
     </row>
-    <row r="24" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:87">
       <c r="I24">
         <v>16</v>
       </c>
@@ -12878,7 +14807,7 @@
         <v>1.18797</v>
       </c>
     </row>
-    <row r="25" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:87">
       <c r="I25">
         <v>16</v>
       </c>
@@ -13091,7 +15020,7 @@
         <v>1.3303199999999999</v>
       </c>
     </row>
-    <row r="26" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:87">
       <c r="I26">
         <v>16</v>
       </c>
@@ -13304,7 +15233,7 @@
         <v>1.35362</v>
       </c>
     </row>
-    <row r="27" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:87">
       <c r="I27">
         <v>16</v>
       </c>
@@ -13517,7 +15446,7 @@
         <v>1.36635</v>
       </c>
     </row>
-    <row r="28" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:87">
       <c r="I28">
         <v>16</v>
       </c>
@@ -13730,7 +15659,7 @@
         <v>1.4941599999999999</v>
       </c>
     </row>
-    <row r="29" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:87">
       <c r="I29">
         <v>16</v>
       </c>
@@ -13943,7 +15872,7 @@
         <v>1.6562399999999999</v>
       </c>
     </row>
-    <row r="30" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:87">
       <c r="I30">
         <v>16</v>
       </c>
@@ -14156,7 +16085,7 @@
         <v>1.7470399999999999</v>
       </c>
     </row>
-    <row r="31" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:87">
       <c r="I31">
         <v>16</v>
       </c>
@@ -14369,7 +16298,7 @@
         <v>1.85379</v>
       </c>
     </row>
-    <row r="32" spans="9:87" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:87">
       <c r="I32">
         <v>16</v>
       </c>
@@ -14561,7 +16490,7 @@
         <v>2.0965400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:87">
       <c r="I33">
         <v>16</v>
       </c>
@@ -14753,7 +16682,7 @@
         <v>2.42414</v>
       </c>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:87">
       <c r="I34">
         <v>16</v>
       </c>
@@ -14945,7 +16874,7 @@
         <v>2.62277</v>
       </c>
     </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:87">
       <c r="I35">
         <v>16</v>
       </c>
@@ -15137,7 +17066,7 @@
         <v>2.8122600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:87">
       <c r="I36">
         <v>16</v>
       </c>
@@ -15329,7 +17258,7 @@
         <v>2.7645200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:87">
       <c r="Y37">
         <v>64</v>
       </c>
@@ -15500,7 +17429,7 @@
         <v>3.03382</v>
       </c>
     </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:87">
       <c r="Y38">
         <v>64</v>
       </c>
@@ -15671,7 +17600,7 @@
         <v>3.1404899999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:87">
       <c r="Y39">
         <v>64</v>
       </c>
@@ -15842,7 +17771,7 @@
         <v>3.28668</v>
       </c>
     </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:87">
       <c r="Y40">
         <v>64</v>
       </c>
@@ -16013,7 +17942,7 @@
         <v>3.4370799999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:87">
       <c r="Y41">
         <v>64</v>
       </c>
@@ -16184,7 +18113,7 @@
         <v>3.6281699999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:87">
       <c r="Y42">
         <v>64</v>
       </c>
@@ -16355,7 +18284,7 @@
         <v>3.8155700000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:87">
       <c r="Y43">
         <v>64</v>
       </c>
@@ -16526,7 +18455,7 @@
         <v>3.9112900000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:87">
       <c r="Y44">
         <v>64</v>
       </c>
@@ -16697,7 +18626,7 @@
         <v>4.1362800000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:87">
       <c r="A45">
         <v>8</v>
       </c>
@@ -16889,7 +18818,7 @@
         <v>4.1754899999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:87">
       <c r="A46">
         <v>16</v>
       </c>
@@ -17081,7 +19010,7 @@
         <v>4.4832999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:87">
       <c r="A47">
         <v>32</v>
       </c>
@@ -17273,7 +19202,7 @@
         <v>4.6000199999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:87">
       <c r="A48">
         <v>64</v>
       </c>
@@ -17465,7 +19394,7 @@
         <v>4.6899300000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:87">
       <c r="A49">
         <v>128</v>
       </c>
@@ -17657,7 +19586,7 @@
         <v>4.7324900000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:87">
       <c r="A50" s="1">
         <v>256</v>
       </c>
@@ -17849,7 +19778,7 @@
         <v>4.9710000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:87">
       <c r="A51" s="1">
         <v>512</v>
       </c>
@@ -18041,7 +19970,7 @@
         <v>5.0602999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:87">
       <c r="AG52">
         <v>128</v>
       </c>
@@ -18178,7 +20107,7 @@
         <v>4.95601</v>
       </c>
     </row>
-    <row r="53" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:87">
       <c r="AG53">
         <v>128</v>
       </c>
@@ -18315,7 +20244,7 @@
         <v>5.0450299999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:87">
       <c r="AG54">
         <v>128</v>
       </c>
@@ -18452,7 +20381,7 @@
         <v>5.16927</v>
       </c>
     </row>
-    <row r="55" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:87">
       <c r="A55">
         <v>8192</v>
       </c>
@@ -18610,7 +20539,7 @@
         <v>5.1235799999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:87">
       <c r="AG56">
         <v>128</v>
       </c>
@@ -18747,7 +20676,7 @@
         <v>5.3797499999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:87">
       <c r="AG57">
         <v>128</v>
       </c>
@@ -18884,7 +20813,7 @@
         <v>5.2370200000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:87">
       <c r="AG58">
         <v>128</v>
       </c>
@@ -19021,7 +20950,7 @@
         <v>5.1375200000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:87">
       <c r="AG59">
         <v>128</v>
       </c>
@@ -19158,7 +21087,7 @@
         <v>5.10365</v>
       </c>
     </row>
-    <row r="60" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:87">
       <c r="AG60">
         <v>128</v>
       </c>
@@ -19295,7 +21224,7 @@
         <v>5.0937299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:87">
       <c r="AO61" s="1">
         <v>256</v>
       </c>
@@ -19411,7 +21340,7 @@
         <v>4.8754400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:87">
       <c r="AO62" s="1">
         <v>256</v>
       </c>
@@ -19527,7 +21456,7 @@
         <v>4.8835499999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:87">
       <c r="AO63" s="1">
         <v>256</v>
       </c>
@@ -19643,7 +21572,7 @@
         <v>5.0692500000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:87">
       <c r="AO64" s="1">
         <v>256</v>
       </c>
@@ -19759,7 +21688,7 @@
         <v>4.9443599999999996</v>
       </c>
     </row>
-    <row r="65" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:87">
       <c r="AO65" s="1">
         <v>256</v>
       </c>
@@ -19875,7 +21804,7 @@
         <v>5.0427099999999996</v>
       </c>
     </row>
-    <row r="66" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:87">
       <c r="AO66" s="1">
         <v>256</v>
       </c>
@@ -19991,7 +21920,7 @@
         <v>5.0156400000000003</v>
       </c>
     </row>
-    <row r="67" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:87">
       <c r="AW67" s="1">
         <v>512</v>
       </c>
@@ -20086,7 +22015,7 @@
         <v>5.0071000000000003</v>
       </c>
     </row>
-    <row r="68" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="68" spans="15:87">
       <c r="AW68" s="1">
         <v>512</v>
       </c>
@@ -20181,7 +22110,7 @@
         <v>5.0500499999999997</v>
       </c>
     </row>
-    <row r="69" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="69" spans="15:87">
       <c r="AW69" s="1">
         <v>512</v>
       </c>
@@ -20276,7 +22205,7 @@
         <v>4.8480999999999996</v>
       </c>
     </row>
-    <row r="70" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="70" spans="15:87">
       <c r="AW70" s="1">
         <v>512</v>
       </c>
@@ -20371,7 +22300,7 @@
         <v>4.8270299999999997</v>
       </c>
     </row>
-    <row r="71" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="71" spans="15:87">
       <c r="AW71" s="1">
         <v>512</v>
       </c>
@@ -20466,7 +22395,7 @@
         <v>4.9366700000000003</v>
       </c>
     </row>
-    <row r="72" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="72" spans="15:87">
       <c r="AW72" s="1">
         <v>512</v>
       </c>
@@ -20561,7 +22490,7 @@
         <v>4.9806499999999998</v>
       </c>
     </row>
-    <row r="73" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="73" spans="15:87">
       <c r="AW73" s="1">
         <v>512</v>
       </c>
@@ -20656,7 +22585,7 @@
         <v>5.0765900000000004</v>
       </c>
     </row>
-    <row r="74" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="74" spans="15:87">
       <c r="BM74">
         <v>2048</v>
       </c>
@@ -20721,7 +22650,7 @@
         <v>5.2191400000000003</v>
       </c>
     </row>
-    <row r="75" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="75" spans="15:87">
       <c r="BM75">
         <v>2048</v>
       </c>
@@ -20786,7 +22715,7 @@
         <v>5.1907399999999999</v>
       </c>
     </row>
-    <row r="76" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="76" spans="15:87">
       <c r="O76" t="s">
         <v>2</v>
       </c>
@@ -20854,7 +22783,7 @@
         <v>5.2738300000000002</v>
       </c>
     </row>
-    <row r="77" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="77" spans="15:87">
       <c r="BM77">
         <v>2048</v>
       </c>
@@ -20919,7 +22848,7 @@
         <v>5.3523399999999999</v>
       </c>
     </row>
-    <row r="78" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="78" spans="15:87">
       <c r="BU78">
         <v>4096</v>
       </c>
@@ -20963,7 +22892,7 @@
         <v>5.3316400000000002</v>
       </c>
     </row>
-    <row r="79" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="79" spans="15:87">
       <c r="BU79">
         <v>4096</v>
       </c>
@@ -21007,7 +22936,7 @@
         <v>5.4284100000000004</v>
       </c>
     </row>
-    <row r="80" spans="15:87" x14ac:dyDescent="0.25">
+    <row r="80" spans="15:87">
       <c r="BU80">
         <v>4096</v>
       </c>
@@ -21051,7 +22980,7 @@
         <v>5.34321</v>
       </c>
     </row>
-    <row r="81" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="81" spans="73:87">
       <c r="BU81">
         <v>4096</v>
       </c>
@@ -21095,7 +23024,7 @@
         <v>5.4134399999999996</v>
       </c>
     </row>
-    <row r="82" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="82" spans="73:87">
       <c r="BU82">
         <v>4096</v>
       </c>
@@ -21139,7 +23068,7 @@
         <v>5.3476100000000004</v>
       </c>
     </row>
-    <row r="83" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="83" spans="73:87">
       <c r="BU83">
         <v>4096</v>
       </c>
@@ -21183,7 +23112,7 @@
         <v>5.6160800000000002</v>
       </c>
     </row>
-    <row r="84" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="84" spans="73:87">
       <c r="BU84">
         <v>4096</v>
       </c>
@@ -21227,7 +23156,7 @@
         <v>5.53003</v>
       </c>
     </row>
-    <row r="85" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="85" spans="73:87">
       <c r="BU85">
         <v>4096</v>
       </c>
@@ -21271,7 +23200,7 @@
         <v>5.4431799999999999</v>
       </c>
     </row>
-    <row r="86" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="86" spans="73:87">
       <c r="BU86">
         <v>4096</v>
       </c>
@@ -21315,7 +23244,7 @@
         <v>5.5963500000000002</v>
       </c>
     </row>
-    <row r="87" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="87" spans="73:87">
       <c r="BU87">
         <v>4096</v>
       </c>
@@ -21359,7 +23288,7 @@
         <v>5.6982499999999998</v>
       </c>
     </row>
-    <row r="88" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="88" spans="73:87">
       <c r="BU88">
         <v>4096</v>
       </c>
@@ -21403,7 +23332,7 @@
         <v>5.7534700000000001</v>
       </c>
     </row>
-    <row r="89" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="89" spans="73:87">
       <c r="BU89">
         <v>4096</v>
       </c>
@@ -21447,7 +23376,7 @@
         <v>5.8785499999999997</v>
       </c>
     </row>
-    <row r="90" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="90" spans="73:87">
       <c r="BU90">
         <v>4096</v>
       </c>
@@ -21491,7 +23420,7 @@
         <v>5.8470500000000003</v>
       </c>
     </row>
-    <row r="91" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="91" spans="73:87">
       <c r="BU91">
         <v>4096</v>
       </c>
@@ -21535,7 +23464,7 @@
         <v>5.8429200000000003</v>
       </c>
     </row>
-    <row r="92" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="92" spans="73:87">
       <c r="BU92">
         <v>4096</v>
       </c>
@@ -21579,7 +23508,7 @@
         <v>5.8524700000000003</v>
       </c>
     </row>
-    <row r="93" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="93" spans="73:87">
       <c r="BU93">
         <v>4096</v>
       </c>
@@ -21623,7 +23552,7 @@
         <v>5.8150000000000004</v>
       </c>
     </row>
-    <row r="94" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="94" spans="73:87">
       <c r="BU94">
         <v>4096</v>
       </c>
@@ -21667,7 +23596,7 @@
         <v>5.8523500000000004</v>
       </c>
     </row>
-    <row r="95" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="95" spans="73:87">
       <c r="BU95">
         <v>4096</v>
       </c>
@@ -21711,7 +23640,7 @@
         <v>5.8232699999999999</v>
       </c>
     </row>
-    <row r="96" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="96" spans="73:87">
       <c r="BU96">
         <v>4096</v>
       </c>
@@ -21755,7 +23684,7 @@
         <v>5.7657999999999996</v>
       </c>
     </row>
-    <row r="97" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="97" spans="73:87">
       <c r="BU97">
         <v>4096</v>
       </c>
@@ -21799,7 +23728,7 @@
         <v>6.1277900000000001</v>
       </c>
     </row>
-    <row r="98" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="98" spans="73:87">
       <c r="BU98">
         <v>4096</v>
       </c>
@@ -21843,7 +23772,7 @@
         <v>6.2292500000000004</v>
       </c>
     </row>
-    <row r="99" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="99" spans="73:87">
       <c r="BU99">
         <v>4096</v>
       </c>
@@ -21887,7 +23816,7 @@
         <v>6.3975400000000002</v>
       </c>
     </row>
-    <row r="100" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="100" spans="73:87">
       <c r="BU100">
         <v>4096</v>
       </c>
@@ -21931,7 +23860,7 @@
         <v>6.5087900000000003</v>
       </c>
     </row>
-    <row r="101" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="101" spans="73:87">
       <c r="BU101">
         <v>4096</v>
       </c>
@@ -21975,7 +23904,7 @@
         <v>6.4531299999999998</v>
       </c>
     </row>
-    <row r="102" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="102" spans="73:87">
       <c r="BU102">
         <v>4096</v>
       </c>
@@ -22019,7 +23948,7 @@
         <v>6.6537800000000002</v>
       </c>
     </row>
-    <row r="103" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="103" spans="73:87">
       <c r="BU103">
         <v>4096</v>
       </c>
@@ -22063,7 +23992,7 @@
         <v>6.6310799999999999</v>
       </c>
     </row>
-    <row r="104" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="104" spans="73:87">
       <c r="BU104">
         <v>4096</v>
       </c>
@@ -22107,7 +24036,7 @@
         <v>6.7594599999999998</v>
       </c>
     </row>
-    <row r="105" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="105" spans="73:87">
       <c r="BU105">
         <v>4096</v>
       </c>
@@ -22151,7 +24080,7 @@
         <v>6.9274899999999997</v>
       </c>
     </row>
-    <row r="106" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="106" spans="73:87">
       <c r="BU106">
         <v>4096</v>
       </c>
@@ -22195,7 +24124,7 @@
         <v>7.06149</v>
       </c>
     </row>
-    <row r="107" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="107" spans="73:87">
       <c r="BU107">
         <v>4096</v>
       </c>
@@ -22239,7 +24168,7 @@
         <v>7.09917</v>
       </c>
     </row>
-    <row r="108" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="108" spans="73:87">
       <c r="BU108">
         <v>4096</v>
       </c>
@@ -22283,7 +24212,7 @@
         <v>7.2045899999999996</v>
       </c>
     </row>
-    <row r="109" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="109" spans="73:87">
       <c r="BU109">
         <v>4096</v>
       </c>
@@ -22327,7 +24256,7 @@
         <v>7.2295999999999996</v>
       </c>
     </row>
-    <row r="110" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="110" spans="73:87">
       <c r="BU110">
         <v>4096</v>
       </c>
@@ -22371,7 +24300,7 @@
         <v>7.1993400000000003</v>
       </c>
     </row>
-    <row r="111" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="111" spans="73:87">
       <c r="BU111">
         <v>4096</v>
       </c>
@@ -22415,7 +24344,7 @@
         <v>7.4246999999999996</v>
       </c>
     </row>
-    <row r="112" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="112" spans="73:87">
       <c r="BU112">
         <v>4096</v>
       </c>
@@ -22459,7 +24388,7 @@
         <v>7.2688800000000002</v>
       </c>
     </row>
-    <row r="113" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="113" spans="73:87">
       <c r="BU113">
         <v>4096</v>
       </c>
@@ -22503,7 +24432,7 @@
         <v>7.4660900000000003</v>
       </c>
     </row>
-    <row r="114" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="114" spans="73:87">
       <c r="BU114">
         <v>4096</v>
       </c>
@@ -22547,7 +24476,7 @@
         <v>7.3536799999999998</v>
       </c>
     </row>
-    <row r="115" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="115" spans="73:87">
       <c r="BU115">
         <v>4096</v>
       </c>
@@ -22591,7 +24520,7 @@
         <v>7.5377900000000002</v>
       </c>
     </row>
-    <row r="116" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="116" spans="73:87">
       <c r="BU116">
         <v>4096</v>
       </c>
@@ -22635,7 +24564,7 @@
         <v>7.5095999999999998</v>
       </c>
     </row>
-    <row r="117" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="117" spans="73:87">
       <c r="BU117">
         <v>4096</v>
       </c>
@@ -22679,7 +24608,7 @@
         <v>7.3470399999999998</v>
       </c>
     </row>
-    <row r="118" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="118" spans="73:87">
       <c r="BU118">
         <v>4096</v>
       </c>
@@ -22723,7 +24652,7 @@
         <v>7.5392000000000001</v>
       </c>
     </row>
-    <row r="119" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="119" spans="73:87">
       <c r="BU119">
         <v>4096</v>
       </c>
@@ -22767,7 +24696,7 @@
         <v>7.5047300000000003</v>
       </c>
     </row>
-    <row r="120" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="120" spans="73:87">
       <c r="BU120">
         <v>4096</v>
       </c>
@@ -22811,7 +24740,7 @@
         <v>7.5164600000000004</v>
       </c>
     </row>
-    <row r="121" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="121" spans="73:87">
       <c r="BU121">
         <v>4096</v>
       </c>
@@ -22855,7 +24784,7 @@
         <v>7.8086099999999998</v>
       </c>
     </row>
-    <row r="122" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="122" spans="73:87">
       <c r="BU122">
         <v>4096</v>
       </c>
@@ -22899,7 +24828,7 @@
         <v>7.7542999999999997</v>
       </c>
     </row>
-    <row r="123" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="123" spans="73:87">
       <c r="BU123">
         <v>4096</v>
       </c>
@@ -22943,7 +24872,7 @@
         <v>7.8351100000000002</v>
       </c>
     </row>
-    <row r="124" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="124" spans="73:87">
       <c r="BU124">
         <v>4096</v>
       </c>
@@ -22987,7 +24916,7 @@
         <v>7.9630000000000001</v>
       </c>
     </row>
-    <row r="125" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="125" spans="73:87">
       <c r="BU125">
         <v>4096</v>
       </c>
@@ -23031,7 +24960,7 @@
         <v>7.87439</v>
       </c>
     </row>
-    <row r="126" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="126" spans="73:87">
       <c r="BU126">
         <v>4096</v>
       </c>
@@ -23075,7 +25004,7 @@
         <v>7.9753800000000004</v>
       </c>
     </row>
-    <row r="127" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="127" spans="73:87">
       <c r="BU127">
         <v>4096</v>
       </c>
@@ -23119,7 +25048,7 @@
         <v>8.0774299999999997</v>
       </c>
     </row>
-    <row r="128" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="128" spans="73:87">
       <c r="BU128">
         <v>4096</v>
       </c>
@@ -23163,7 +25092,7 @@
         <v>8.0598799999999997</v>
       </c>
     </row>
-    <row r="129" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="129" spans="73:87">
       <c r="BU129">
         <v>4096</v>
       </c>
@@ -23207,7 +25136,7 @@
         <v>8.1693599999999993</v>
       </c>
     </row>
-    <row r="130" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="130" spans="73:87">
       <c r="BU130">
         <v>4096</v>
       </c>
@@ -23251,7 +25180,7 @@
         <v>8.2412299999999998</v>
       </c>
     </row>
-    <row r="131" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="131" spans="73:87">
       <c r="BU131">
         <v>4096</v>
       </c>
@@ -23295,7 +25224,7 @@
         <v>8.2306100000000004</v>
       </c>
     </row>
-    <row r="132" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="132" spans="73:87">
       <c r="BU132">
         <v>4096</v>
       </c>
@@ -23339,7 +25268,7 @@
         <v>8.0590200000000003</v>
       </c>
     </row>
-    <row r="133" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="133" spans="73:87">
       <c r="BU133">
         <v>4096</v>
       </c>
@@ -23383,7 +25312,7 @@
         <v>7.9840299999999997</v>
       </c>
     </row>
-    <row r="134" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="134" spans="73:87">
       <c r="BU134">
         <v>4096</v>
       </c>
@@ -23427,7 +25356,7 @@
         <v>8.0615600000000001</v>
       </c>
     </row>
-    <row r="135" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="135" spans="73:87">
       <c r="BU135">
         <v>4096</v>
       </c>
@@ -23471,7 +25400,7 @@
         <v>8.0040899999999997</v>
       </c>
     </row>
-    <row r="136" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="136" spans="73:87">
       <c r="BU136">
         <v>4096</v>
       </c>
@@ -23515,7 +25444,7 @@
         <v>8.0239100000000008</v>
       </c>
     </row>
-    <row r="137" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="137" spans="73:87">
       <c r="BU137">
         <v>4096</v>
       </c>
@@ -23559,7 +25488,7 @@
         <v>7.8559999999999999</v>
       </c>
     </row>
-    <row r="138" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="138" spans="73:87">
       <c r="BU138">
         <v>4096</v>
       </c>
@@ -23603,7 +25532,7 @@
         <v>8.0204000000000004</v>
       </c>
     </row>
-    <row r="139" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="139" spans="73:87">
       <c r="BU139">
         <v>4096</v>
       </c>
@@ -23647,7 +25576,7 @@
         <v>7.79331</v>
       </c>
     </row>
-    <row r="140" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="140" spans="73:87">
       <c r="BU140">
         <v>4096</v>
       </c>
@@ -23691,7 +25620,7 @@
         <v>7.9849800000000002</v>
       </c>
     </row>
-    <row r="141" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="141" spans="73:87">
       <c r="BU141">
         <v>4096</v>
       </c>
@@ -23735,7 +25664,7 @@
         <v>7.91059</v>
       </c>
     </row>
-    <row r="142" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="142" spans="73:87">
       <c r="BU142">
         <v>4096</v>
       </c>
@@ -23779,7 +25708,7 @@
         <v>7.9183199999999996</v>
       </c>
     </row>
-    <row r="143" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="143" spans="73:87">
       <c r="BU143">
         <v>4096</v>
       </c>
@@ -23823,7 +25752,7 @@
         <v>7.9383100000000004</v>
       </c>
     </row>
-    <row r="144" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="144" spans="73:87">
       <c r="BU144">
         <v>4096</v>
       </c>
@@ -23867,7 +25796,7 @@
         <v>7.8473800000000002</v>
       </c>
     </row>
-    <row r="145" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="145" spans="73:87">
       <c r="BU145">
         <v>4096</v>
       </c>
@@ -23911,7 +25840,7 @@
         <v>7.9287000000000001</v>
       </c>
     </row>
-    <row r="146" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="146" spans="73:87">
       <c r="BU146">
         <v>4096</v>
       </c>
@@ -23955,7 +25884,7 @@
         <v>7.8009300000000001</v>
       </c>
     </row>
-    <row r="147" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="147" spans="73:87">
       <c r="BU147">
         <v>4096</v>
       </c>
@@ -23999,7 +25928,7 @@
         <v>7.74214</v>
       </c>
     </row>
-    <row r="148" spans="73:87" x14ac:dyDescent="0.25">
+    <row r="148" spans="73:87">
       <c r="BU148">
         <v>4096</v>
       </c>
@@ -24058,30 +25987,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AC1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="U122" sqref="U122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -24104,7 +26033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="5"/>
       <c r="B3">
         <v>16</v>
@@ -24125,7 +26054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5"/>
       <c r="B4">
         <v>32</v>
@@ -24146,7 +26075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="5"/>
       <c r="B5">
         <v>64</v>
@@ -24167,7 +26096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6">
         <v>128</v>
@@ -24188,7 +26117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>256</v>
@@ -24210,7 +26139,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>512</v>
@@ -24232,7 +26161,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>1024</v>
@@ -24254,7 +26183,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>2048</v>
@@ -24276,7 +26205,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>4096</v>
@@ -24298,7 +26227,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>8192</v>
@@ -24320,7 +26249,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>16384</v>
@@ -24342,18 +26271,18 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -24370,7 +26299,7 @@
         <v>4.2254100000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16">
         <v>16</v>
@@ -24385,7 +26314,7 @@
         <v>7.4217200000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17">
         <v>32</v>
@@ -24400,7 +26329,7 @@
         <v>1.6002200000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18">
         <v>64</v>
@@ -24415,7 +26344,7 @@
         <v>2.8836500000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19">
         <v>128</v>
@@ -24430,7 +26359,7 @@
         <v>5.7966399999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="1">
         <v>256</v>
@@ -24445,7 +26374,7 @@
         <v>1.0142399999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="1">
         <v>512</v>
@@ -24460,7 +26389,7 @@
         <v>1.8582100000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22">
         <v>1024</v>
       </c>
@@ -24474,7 +26403,7 @@
         <v>3.79368E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23">
         <v>2048</v>
       </c>
@@ -24488,7 +26417,7 @@
         <v>8.9369900000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24">
         <v>4096</v>
       </c>
@@ -24502,7 +26431,7 @@
         <v>0.25780999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25">
         <v>8192</v>
       </c>
@@ -24516,7 +26445,7 @@
         <v>0.554983</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="B26">
         <v>16384</v>
       </c>
@@ -24554,18 +26483,18 @@
       <selection activeCell="X73" sqref="X73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>512</v>
       </c>
@@ -24592,7 +26521,7 @@
         <v>1.8582100000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -24619,7 +26548,7 @@
         <v>1.6034799999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>512</v>
       </c>
@@ -24646,7 +26575,7 @@
         <v>1.8386099999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>512</v>
       </c>
@@ -24673,7 +26602,7 @@
         <v>2.53999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>512</v>
       </c>
@@ -24700,7 +26629,7 @@
         <v>2.64893E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -24727,7 +26656,7 @@
         <v>2.3524799999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>512</v>
       </c>
@@ -24754,7 +26683,7 @@
         <v>2.1911699999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>512</v>
       </c>
@@ -24781,7 +26710,7 @@
         <v>2.21639E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>512</v>
       </c>
@@ -24808,7 +26737,7 @@
         <v>2.4707099999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>512</v>
       </c>
@@ -24835,7 +26764,7 @@
         <v>2.5690999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>512</v>
       </c>
@@ -24862,7 +26791,7 @@
         <v>2.4070399999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>512</v>
       </c>
@@ -24889,7 +26818,7 @@
         <v>3.8121799999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>512</v>
       </c>
@@ -24916,7 +26845,7 @@
         <v>4.2211899999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>512</v>
       </c>
@@ -24943,7 +26872,7 @@
         <v>4.6411300000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>512</v>
       </c>
@@ -24970,7 +26899,7 @@
         <v>4.1558400000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>512</v>
       </c>
@@ -24997,7 +26926,7 @@
         <v>4.2146999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>512</v>
       </c>
@@ -25024,7 +26953,7 @@
         <v>3.7866900000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>512</v>
       </c>
@@ -25051,7 +26980,7 @@
         <v>4.0377799999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>512</v>
       </c>
@@ -25078,7 +27007,7 @@
         <v>4.3349499999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>512</v>
       </c>
@@ -25105,7 +27034,7 @@
         <v>5.73286E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>512</v>
       </c>
@@ -25132,7 +27061,7 @@
         <v>6.6747399999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>512</v>
       </c>
@@ -25159,7 +27088,7 @@
         <v>7.0142399999999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>512</v>
       </c>
@@ -25186,7 +27115,7 @@
         <v>6.6446599999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>512</v>
       </c>
@@ -25213,7 +27142,7 @@
         <v>7.0914699999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>512</v>
       </c>
@@ -25240,7 +27169,7 @@
         <v>7.6980000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>512</v>
       </c>
@@ -25267,7 +27196,7 @@
         <v>7.91549E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>512</v>
       </c>
@@ -25294,7 +27223,7 @@
         <v>8.7502099999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>512</v>
       </c>
@@ -25321,7 +27250,7 @@
         <v>9.9937100000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>512</v>
       </c>
@@ -25348,7 +27277,7 @@
         <v>0.11500100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>512</v>
       </c>
@@ -25375,7 +27304,7 @@
         <v>0.12906400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>512</v>
       </c>
@@ -25402,7 +27331,7 @@
         <v>0.12571599999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>512</v>
       </c>
@@ -25429,7 +27358,7 @@
         <v>0.13417100000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>512</v>
       </c>
@@ -25456,7 +27385,7 @@
         <v>0.145954</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>512</v>
       </c>
@@ -25483,7 +27412,7 @@
         <v>0.147373</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>512</v>
       </c>
@@ -25510,7 +27439,7 @@
         <v>0.15384999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>512</v>
       </c>
@@ -25537,7 +27466,7 @@
         <v>0.159412</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>512</v>
       </c>
@@ -25564,7 +27493,7 @@
         <v>0.16961799999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>512</v>
       </c>
@@ -25591,7 +27520,7 @@
         <v>0.17344399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>512</v>
       </c>
@@ -25618,7 +27547,7 @@
         <v>0.18914300000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>512</v>
       </c>
@@ -25645,7 +27574,7 @@
         <v>0.18981899999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>512</v>
       </c>
@@ -25672,7 +27601,7 @@
         <v>0.1903</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>512</v>
       </c>
@@ -25699,7 +27628,7 @@
         <v>0.19652900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>512</v>
       </c>
@@ -25726,7 +27655,7 @@
         <v>0.19669600000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>512</v>
       </c>
@@ -25753,7 +27682,7 @@
         <v>0.20227300000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>512</v>
       </c>
@@ -25780,7 +27709,7 @@
         <v>0.20791000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>512</v>
       </c>
@@ -25807,7 +27736,7 @@
         <v>0.22572900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>512</v>
       </c>
@@ -25834,7 +27763,7 @@
         <v>0.234898</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>512</v>
       </c>
@@ -25861,7 +27790,7 @@
         <v>0.26139400000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>512</v>
       </c>
@@ -25888,7 +27817,7 @@
         <v>0.276557</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>512</v>
       </c>
@@ -25915,7 +27844,7 @@
         <v>0.28623799999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>512</v>
       </c>
@@ -25942,7 +27871,7 @@
         <v>0.295846</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>512</v>
       </c>
@@ -25969,7 +27898,7 @@
         <v>0.29956899999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>512</v>
       </c>
@@ -25996,7 +27925,7 @@
         <v>0.29734300000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>512</v>
       </c>
@@ -26023,7 +27952,7 @@
         <v>0.28243699999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>512</v>
       </c>
@@ -26050,7 +27979,7 @@
         <v>0.29305599999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>512</v>
       </c>
@@ -26077,7 +28006,7 @@
         <v>0.29912699999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>512</v>
       </c>
@@ -26104,7 +28033,7 @@
         <v>0.29811900000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>512</v>
       </c>
@@ -26131,7 +28060,7 @@
         <v>0.28471000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>512</v>
       </c>
@@ -26158,7 +28087,7 @@
         <v>0.28884900000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>512</v>
       </c>
@@ -26185,7 +28114,7 @@
         <v>0.308701</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>512</v>
       </c>
@@ -26212,7 +28141,7 @@
         <v>0.31221399999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>512</v>
       </c>
@@ -26239,7 +28168,7 @@
         <v>0.30900100000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>512</v>
       </c>
@@ -26266,7 +28195,7 @@
         <v>0.30944300000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>512</v>
       </c>
@@ -26293,7 +28222,7 @@
         <v>0.32758199999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>512</v>
       </c>
@@ -26320,7 +28249,7 @@
         <v>0.33157500000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>512</v>
       </c>
@@ -26347,7 +28276,7 @@
         <v>0.32880999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>512</v>
       </c>
@@ -26374,7 +28303,7 @@
         <v>0.31935400000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>512</v>
       </c>
@@ -26401,7 +28330,7 @@
         <v>0.32346000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>512</v>
       </c>
@@ -26428,7 +28357,7 @@
         <v>0.314799</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>512</v>
       </c>
@@ -26455,7 +28384,7 @@
         <v>0.31086999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>512</v>
       </c>
@@ -26482,7 +28411,7 @@
         <v>0.30481399999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>512</v>
       </c>
@@ -26509,7 +28438,7 @@
         <v>0.31716899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>512</v>
       </c>
@@ -26546,4 +28475,25 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="AB59" sqref="AB59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>